--- a/07. JULI/hasil/IDLAGU_Outlet_HP055.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP055.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10519,6 +10519,17 @@
         <is>
           <t>10000727</t>
         </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C505">
+        <f>SUM(C2:C504)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -10532,7 +10543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11100,6 +11111,17 @@
         <is>
           <t>1869100A</t>
         </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C29">
+        <f>SUM(C2:C28)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -11113,7 +11135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12981,6 +13003,17 @@
         <is>
           <t>2799036</t>
         </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C94">
+        <f>SUM(C2:C93)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -12994,7 +13027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13042,6 +13075,17 @@
         <is>
           <t>30005296A</t>
         </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C3">
+        <f>SUM(C2:C2)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -13055,7 +13099,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13185,233 +13229,23 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C7">
+        <f>SUM(C2:C6)</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Judul Lagu</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Penyanyi</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jumlah Pengguna</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MEGAVERSE</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>스트레이 키즈</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>50003088A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>#Cookie Jar</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>레드벨벳</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>50001881A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Eve, Psyche &amp; The Bluebeard's Wife</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>르세라핌</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>50002976A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>One and Only</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>보이넥스트도어</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>50002977A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Crazy Form</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>에이티즈</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>50003090A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Hmm-cheat</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>크러쉬</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>50003091A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Chili</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>화사</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>50003094A</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>With You (Ost: My Demon)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>윈터</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>50003097A</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Closer Than This</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>지민</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>50003105A</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13450,6 +13284,238 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>MEGAVERSE</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>스트레이 키즈</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50003088A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>#Cookie Jar</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>레드벨벳</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50001881A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Eve, Psyche &amp; The Bluebeard's Wife</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>르세라핌</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50002976A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>One and Only</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>보이넥스트도어</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50002977A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Crazy Form</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>에이티즈</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50003090A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hmm-cheat</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>크러쉬</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50003091A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chili</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>화사</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50003094A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>With You (Ost: My Demon)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>윈터</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50003097A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Closer Than This</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>지민</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>50003105A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C11">
+        <f>SUM(C2:C10)</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Judul Lagu</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Penyanyi</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Jumlah Pengguna</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>Koyo Jogja Istimewa</t>
         </is>
       </c>
@@ -13645,6 +13711,17 @@
         <is>
           <t>93000085B</t>
         </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Jumlah</t>
+        </is>
+      </c>
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/07. JULI/hasil/IDLAGU_Outlet_HP055.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP055.xlsx
@@ -14,6 +14,7 @@
     <sheet name="Jepang" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Korea" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Lain-Lain" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Total" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -61,10 +62,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13060,12 +13064,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>別知己</t>
+          <t>Bie Zhi Ji</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>海来阿木 - 阿呷拉古 - 曲比阿且</t>
+          <t>311380.0 - 311381 - 311468.0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -13132,12 +13136,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>君はどこにいても</t>
+          <t>Wherever You Are</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ワンオクロック</t>
+          <t>430205.0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -13152,12 +13156,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kizuna no Kiseki (Ost. Demon Slayer: Kimetsu no Yaiba)</t>
+          <t>Kizuna No Kiseki (Ost.  Demon Slayer: Kimetsu No Yaiba)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Man with a Mission - ミレイ</t>
+          <t>430212.0 - 420498</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -13172,12 +13176,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ハートエイク</t>
+          <t>Heartache</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ワンオクロック</t>
+          <t>430205.0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -13197,7 +13201,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ワンオクロック</t>
+          <t>430205.0</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -13212,12 +13216,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>エンドレス・ラブ Endless Love</t>
+          <t>Endless Love</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Diana Ross - Lionel Richie</t>
+          <t>220199.0 - 210931</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -13284,12 +13288,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MEGAVERSE</t>
+          <t>Megaverse</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>스트레이 키즈</t>
+          <t>530310.0</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -13309,7 +13313,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>레드벨벳</t>
+          <t>530225.0</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -13329,7 +13333,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>르세라핌</t>
+          <t>530422.0</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -13344,12 +13348,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>One and Only</t>
+          <t>One And Only</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>보이넥스트도어</t>
+          <t>530448.0</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -13369,7 +13373,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>에이티즈</t>
+          <t>530351.0</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -13384,12 +13388,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hmm-cheat</t>
+          <t>Hmm-Cheat</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>크러쉬</t>
+          <t>510742.0</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -13409,7 +13413,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>화사</t>
+          <t>520180.0</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -13429,7 +13433,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>윈터</t>
+          <t>520212.0</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -13449,7 +13453,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>지민</t>
+          <t>520122.0</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -13727,4 +13731,181 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Pop</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Daerah</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Jepang</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Lain-Lain</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <f>='Indonesia Pop'!C505</f>
+        <v/>
+      </c>
+      <c r="B2" s="2">
+        <f>='Indonesia Daerah'!C29</f>
+        <v/>
+      </c>
+      <c r="C2" s="2">
+        <f>='English'!C94</f>
+        <v/>
+      </c>
+      <c r="D2" s="2">
+        <f>='Mandarin'!C3</f>
+        <v/>
+      </c>
+      <c r="E2" s="2">
+        <f>='Jepang'!C7</f>
+        <v/>
+      </c>
+      <c r="F2" s="2">
+        <f>='Korea'!C11</f>
+        <v/>
+      </c>
+      <c r="G2" s="2">
+        <f>='Lain-Lain'!C12</f>
+        <v/>
+      </c>
+      <c r="H2" s="2">
+        <f>SUM(A2:G2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Pop</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Indonesia Daerah</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Mandarin</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>Jepang</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>Korea</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>Lain-Lain</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <f>A2/H2</f>
+        <v/>
+      </c>
+      <c r="B4" s="2">
+        <f>B2/H2</f>
+        <v/>
+      </c>
+      <c r="C4" s="2">
+        <f>C2/H2</f>
+        <v/>
+      </c>
+      <c r="D4" s="2">
+        <f>D2/H2</f>
+        <v/>
+      </c>
+      <c r="E4" s="2">
+        <f>E2/H2</f>
+        <v/>
+      </c>
+      <c r="F4" s="2">
+        <f>F2/H2</f>
+        <v/>
+      </c>
+      <c r="G4" s="2">
+        <f>G2/H2</f>
+        <v/>
+      </c>
+      <c r="H4" s="2">
+        <f>H2/H2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/07. JULI/hasil/IDLAGU_Outlet_HP055.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP055.xlsx
@@ -13069,7 +13069,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>311380.0 - 311381 - 311468.0</t>
+          <t>Hai Lai A Mu - A Ga La Gu - Qu Biaqie</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -13141,7 +13141,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>430205.0</t>
+          <t>One Ok Rock</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>430212.0 - 420498</t>
+          <t>Man with a Mission - Milet</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>430205.0</t>
+          <t>One Ok Rock</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -13201,7 +13201,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>430205.0</t>
+          <t>One Ok Rock</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -13221,7 +13221,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>220199.0 - 210931</t>
+          <t>Diana Ross - Lionel Richie</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>530310.0</t>
+          <t>Stray Kids</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>530225.0</t>
+          <t>Red Velvet</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>530422.0</t>
+          <t>Le Sserafim</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>530448.0</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -13373,7 +13373,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>530351.0</t>
+          <t>ATEEZ</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510742.0</t>
+          <t>Crush</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>520180.0</t>
+          <t>Hwasa</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>520212.0</t>
+          <t>Winter</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>520122.0</t>
+          <t>Jimin</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -13705,7 +13705,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>孙艺琪</t>
+          <t>Sun Yiqi</t>
         </is>
       </c>
       <c r="C11" t="n">

--- a/07. JULI/hasil/IDLAGU_Outlet_HP055.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP055.xlsx
@@ -36,12 +36,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ccccff"/>
+        <bgColor rgb="00ccccff"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -62,10 +68,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -13739,7 +13748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13750,162 +13759,198 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
+          <t>Kategori Bahasa</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
           <t>Indonesia Pop</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Indonesia Daerah</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>Mandarin</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>Jepang</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="G1" s="2" t="inlineStr">
+      <c r="G2" s="2" t="inlineStr">
         <is>
           <t>Lain-Lain</t>
         </is>
       </c>
-      <c r="H1" s="2" t="inlineStr">
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
+    <row r="3">
+      <c r="A3" s="3">
         <f>='Indonesia Pop'!C505</f>
         <v/>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="3">
         <f>='Indonesia Daerah'!C29</f>
         <v/>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="3">
         <f>='English'!C94</f>
         <v/>
       </c>
-      <c r="D2" s="2">
+      <c r="D3" s="3">
         <f>='Mandarin'!C3</f>
         <v/>
       </c>
-      <c r="E2" s="2">
+      <c r="E3" s="3">
         <f>='Jepang'!C7</f>
         <v/>
       </c>
-      <c r="F2" s="2">
+      <c r="F3" s="3">
         <f>='Korea'!C11</f>
         <v/>
       </c>
-      <c r="G2" s="2">
+      <c r="G3" s="3">
         <f>='Lain-Lain'!C12</f>
         <v/>
       </c>
-      <c r="H2" s="2">
-        <f>SUM(A2:G2)</f>
+      <c r="H3" s="3">
+        <f>SUM(A3:G3)</f>
         <v/>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Prosentase</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="3" t="n"/>
+      <c r="F5" s="3" t="n"/>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Indonesia Pop</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>Indonesia Daerah</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>English</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>Mandarin</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>Jepang</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>Korea</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>Lain-Lain</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <f>A2/H2</f>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <f>A3/H3</f>
         <v/>
       </c>
-      <c r="B4" s="2">
-        <f>B2/H2</f>
+      <c r="B7">
+        <f>B3/H3</f>
         <v/>
       </c>
-      <c r="C4" s="2">
-        <f>C2/H2</f>
+      <c r="C7">
+        <f>C3/H3</f>
         <v/>
       </c>
-      <c r="D4" s="2">
-        <f>D2/H2</f>
+      <c r="D7">
+        <f>D3/H3</f>
         <v/>
       </c>
-      <c r="E4" s="2">
-        <f>E2/H2</f>
+      <c r="E7">
+        <f>E3/H3</f>
         <v/>
       </c>
-      <c r="F4" s="2">
-        <f>F2/H2</f>
+      <c r="F7">
+        <f>F3/H3</f>
         <v/>
       </c>
-      <c r="G4" s="2">
-        <f>G2/H2</f>
+      <c r="G7">
+        <f>G3/H3</f>
         <v/>
       </c>
-      <c r="H4" s="2">
-        <f>H2/H2</f>
+      <c r="H7">
+        <f>H3/H3</f>
         <v/>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n"/>
-      <c r="G5" s="2" t="n"/>
-      <c r="H5" s="2" t="n"/>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/07. JULI/hasil/IDLAGU_Outlet_HP055.xlsx
+++ b/07. JULI/hasil/IDLAGU_Outlet_HP055.xlsx
@@ -13859,7 +13859,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Prosentase</t>
+          <t>Persentase</t>
         </is>
       </c>
       <c r="B5" s="3" t="n"/>
